--- a/data/trans_dic/IP12_R1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP12_R1_2023-Edad-trans_dic.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,05</t>
+          <t>0,0; 4,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>0,0; 2,07</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,85</t>
+          <t>0,71; 3,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,75</t>
+          <t>1,31; 5,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,93</t>
+          <t>1,33; 3,93</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,34</t>
+          <t>1,26; 5,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,39</t>
+          <t>1,4; 6,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,59</t>
+          <t>1,72; 4,74</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,53</t>
+          <t>0,55; 3,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,82</t>
+          <t>0,66; 3,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,82</t>
+          <t>0,92; 3,11</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,91</t>
+          <t>1,08; 2,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,41</t>
+          <t>1,48; 3,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,8</t>
+          <t>1,43; 2,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP12_R1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP12_R1_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,68%</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,33%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,36</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,64</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,06</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,07</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,3%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,82</t>
+          <t>1,26; 5,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,75</t>
+          <t>0,77; 4,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,93</t>
+          <t>1,31; 3,81</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,83</t>
+          <t>1,4; 6,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,0</t>
+          <t>1,14; 5,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,74</t>
+          <t>1,7; 4,68</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,49</t>
+          <t>0,6; 3,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,6</t>
+          <t>0,5; 3,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,11</t>
+          <t>0,76; 2,72</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,82</t>
+          <t>1,39; 3,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,45</t>
+          <t>1,11; 2,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,7</t>
+          <t>1,42; 2,67</t>
         </is>
       </c>
     </row>
